--- a/va_facility_data_2025-02-20/Jefferson City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jefferson%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jefferson City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jefferson%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdf4b83631fa541b9839379c5bd4f4bca"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R840cc5506e6545ae831adb077b6550e4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R53a8f34f5d5b4186a7cf8d0dcce32dd5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R05b24e32d6154f2187ab6b956e809c63"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcaaac03262ff4bd483ff494da033a8c2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5a9707db3f2040ffb42ba6f171a1fcf2"/>
   </x:sheets>
 </x:workbook>
 </file>
